--- a/xtehr/mappable/FunctionalStatus.xlsx
+++ b/xtehr/mappable/FunctionalStatus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nictiznl-my.sharepoint.com/personal/jacob_engel_nictiz_nl/Documents/Documenten/GitHub/eu-nl-compared/xtehr/mappable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_406551BDD3205B2D2BDA3711595ED87656CD4E7C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9FEF243-9295-4715-BCBB-37A7CCB0DBC3}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_406551BDD3205B2D2BDA3711595ED87656CD4E7C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14DC5104-1897-494D-93FB-DEE11E3289AB}"/>
   <bookViews>
-    <workbookView xWindow="57990" yWindow="-13035" windowWidth="20415" windowHeight="17385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5925" yWindow="225" windowWidth="22875" windowHeight="12165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -55,121 +55,16 @@
     <t>0..*</t>
   </si>
   <si>
-    <t>EHDSFunctionalStatus.header</t>
-  </si>
-  <si>
-    <t>Common header for all patient-related data</t>
-  </si>
-  <si>
     <t>Base</t>
   </si>
   <si>
-    <t>1..1</t>
-  </si>
-  <si>
-    <t>EHDSFunctionalStatus.header.subject</t>
-  </si>
-  <si>
-    <t>Subject</t>
-  </si>
-  <si>
-    <t>Patient/subject information</t>
-  </si>
-  <si>
-    <t>EHDSPatient</t>
-  </si>
-  <si>
-    <t>EHDSFunctionalStatus.header.identifier</t>
-  </si>
-  <si>
-    <t>Business identifier for the object</t>
-  </si>
-  <si>
-    <t>Identifier</t>
-  </si>
-  <si>
-    <t>EHDSFunctionalStatus.header.authorship</t>
-  </si>
-  <si>
-    <t>Authorship</t>
-  </si>
-  <si>
-    <t>Resource authoring details</t>
-  </si>
-  <si>
-    <t>1..*</t>
-  </si>
-  <si>
-    <t>EHDSFunctionalStatus.header.authorship.author[x]</t>
-  </si>
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
-    <t>Author(s) by whom the resource was/were authored. Multiple authors could be provided.</t>
-  </si>
-  <si>
-    <t>EHDSHealthProfessional</t>
-  </si>
-  <si>
-    <t>EHDSFunctionalStatus.header.authorship.datetime</t>
-  </si>
-  <si>
-    <t>Date and time of authoring/issuing</t>
-  </si>
-  <si>
-    <t>Date and time of the issuing the document/resource by its author.</t>
-  </si>
-  <si>
     <t>dateTime</t>
   </si>
   <si>
-    <t>EHDSFunctionalStatus.header.lastUpdate</t>
-  </si>
-  <si>
-    <t>Date and time of the last update to the resource</t>
-  </si>
-  <si>
-    <t>Date and time of the last update to the document/information</t>
-  </si>
-  <si>
     <t>0..1</t>
   </si>
   <si>
-    <t>EHDSFunctionalStatus.header.status</t>
-  </si>
-  <si>
-    <t>Status of the resource</t>
-  </si>
-  <si>
     <t>CodeableConcept</t>
-  </si>
-  <si>
-    <t>EHDSFunctionalStatus.header.statusReason[x]</t>
-  </si>
-  <si>
-    <t>Reason for the current status of the resource.</t>
-  </si>
-  <si>
-    <t>EHDSFunctionalStatus.header.language</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>Language in which the resource is written. Language is expressed by the IETF language tag.</t>
-  </si>
-  <si>
-    <t>{'strength': 'preferred', 'description': 'BCP 47'}</t>
-  </si>
-  <si>
-    <t>EHDSFunctionalStatus.header.version</t>
-  </si>
-  <si>
-    <t>Version</t>
-  </si>
-  <si>
-    <t>Business version of the resource.</t>
   </si>
   <si>
     <t>string</t>
@@ -613,18 +508,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B24"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="76.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="76.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -647,7 +542,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -664,87 +559,87 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
         <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -755,362 +650,139 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>28</v>
       </c>
-      <c r="E7" t="s">
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
         <v>29</v>
       </c>
-      <c r="F7" t="s">
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>38</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>38</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C12" t="s">
         <v>39</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D12" t="s">
         <v>39</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>40</v>
       </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
         <v>41</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D13" t="s">
         <v>41</v>
       </c>
-      <c r="C11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>70</v>
-      </c>
-      <c r="B22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>73</v>
-      </c>
-      <c r="B23" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" t="s">
-        <v>74</v>
-      </c>
-      <c r="E23" t="s">
-        <v>33</v>
-      </c>
-      <c r="F23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24" t="s">
-        <v>76</v>
-      </c>
-      <c r="E24" t="s">
-        <v>50</v>
-      </c>
-      <c r="F24" t="s">
-        <v>37</v>
-      </c>
-      <c r="G24" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
